--- a/Segumiento_Tuya.xlsx
+++ b/Segumiento_Tuya.xlsx
@@ -1310,6 +1310,9 @@
     <xf borderId="5" fillId="3" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf borderId="5" fillId="3" fontId="11" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="5" fillId="3" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1318,9 +1321,6 @@
     </xf>
     <xf borderId="5" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="11" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="5" fillId="4" fontId="11" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="center"/>
@@ -1917,7 +1917,7 @@
       <c r="L2" s="22"/>
       <c r="M2" s="23">
         <f>IF(ISBLANK(L2), NETWORKDAYS(J2, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J2, L2, Hoja2!$A$1:$A$18))</f>
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="N2" s="24"/>
       <c r="O2" s="25"/>
@@ -1979,7 +1979,7 @@
       <c r="L3" s="37"/>
       <c r="M3" s="38">
         <f>IF(ISBLANK(L3), NETWORKDAYS(J3, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J3, L3, Hoja2!$A$1:$A$18))</f>
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="N3" s="39"/>
       <c r="O3" s="40"/>
@@ -2041,7 +2041,7 @@
       <c r="L4" s="22"/>
       <c r="M4" s="23">
         <f>IF(ISBLANK(L4), NETWORKDAYS(J4, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J4, L4, Hoja2!$A$1:$A$18))</f>
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="N4" s="22"/>
       <c r="O4" s="25"/>
@@ -2103,7 +2103,7 @@
       <c r="L5" s="36"/>
       <c r="M5" s="38">
         <f>IF(ISBLANK(L5), NETWORKDAYS(J5, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J5, L5, Hoja2!$A$1:$A$18))</f>
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="N5" s="39"/>
       <c r="O5" s="40"/>
@@ -2165,7 +2165,7 @@
       <c r="L6" s="22"/>
       <c r="M6" s="23">
         <f>IF(ISBLANK(L6), NETWORKDAYS(J6, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J6, L6, Hoja2!$A$1:$A$18))</f>
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="N6" s="24"/>
       <c r="O6" s="25"/>
@@ -2227,7 +2227,7 @@
       <c r="L7" s="45"/>
       <c r="M7" s="38">
         <f>IF(ISBLANK(L7), NETWORKDAYS(J7, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J7, L7, Hoja2!$A$1:$A$18))</f>
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="47"/>
@@ -2289,7 +2289,7 @@
       <c r="L8" s="22"/>
       <c r="M8" s="23">
         <f>IF(ISBLANK(L8), NETWORKDAYS(J8, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J8, L8, Hoja2!$A$1:$A$18))</f>
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="N8" s="22"/>
       <c r="O8" s="50"/>
@@ -2351,7 +2351,7 @@
       <c r="L9" s="36"/>
       <c r="M9" s="38">
         <f>IF(ISBLANK(L9), NETWORKDAYS(J9, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J9, L9, Hoja2!$A$1:$A$18))</f>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="47"/>
@@ -2413,7 +2413,7 @@
       <c r="L10" s="22"/>
       <c r="M10" s="23">
         <f>IF(ISBLANK(L10), NETWORKDAYS(J16, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J16, L10, Hoja2!$A$1:$A$18))</f>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N10" s="22"/>
       <c r="O10" s="50"/>
@@ -2768,7 +2768,7 @@
       <c r="L16" s="22"/>
       <c r="M16" s="23">
         <f>IF(ISBLANK(L16), NETWORKDAYS(J17, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J17, L16, Hoja2!$A$1:$A$18))</f>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N16" s="22"/>
       <c r="O16" s="50"/>
@@ -2828,7 +2828,7 @@
       <c r="L17" s="37"/>
       <c r="M17" s="38">
         <f>IF(ISBLANK(L17), NETWORKDAYS(J18, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J18, L17, Hoja2!$A$1:$A$18))</f>
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N17" s="37"/>
       <c r="O17" s="47"/>
@@ -2888,7 +2888,7 @@
       <c r="L18" s="22"/>
       <c r="M18" s="23">
         <f>IF(ISBLANK(L18), NETWORKDAYS(J19, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J19, L18, Hoja2!$A$1:$A$18))</f>
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N18" s="22"/>
       <c r="O18" s="50"/>
@@ -2948,7 +2948,7 @@
       <c r="L19" s="37"/>
       <c r="M19" s="38">
         <f>IF(ISBLANK(L19), NETWORKDAYS(J20, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J20, L19, Hoja2!$A$1:$A$18))</f>
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N19" s="37"/>
       <c r="O19" s="47"/>
@@ -3008,7 +3008,7 @@
       <c r="L20" s="87"/>
       <c r="M20" s="23">
         <f>IF(ISBLANK(L20), NETWORKDAYS(J21, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J21, L20, Hoja2!$A$1:$A$18))</f>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N20" s="90"/>
       <c r="O20" s="50"/>
@@ -3253,11 +3253,11 @@
       </c>
       <c r="H24" s="68"/>
       <c r="I24" s="90"/>
-      <c r="J24" s="77">
+      <c r="J24" s="69">
         <v>45860.0</v>
       </c>
       <c r="K24" s="87"/>
-      <c r="L24" s="87">
+      <c r="L24" s="99">
         <v>45860.0</v>
       </c>
       <c r="M24" s="23">
@@ -3266,7 +3266,7 @@
       </c>
       <c r="N24" s="90"/>
       <c r="O24" s="50"/>
-      <c r="P24" s="99"/>
+      <c r="P24" s="100"/>
       <c r="Q24" s="27" t="b">
         <v>1</v>
       </c>
@@ -3303,7 +3303,7 @@
       <c r="C25" s="94" t="s">
         <v>97</v>
       </c>
-      <c r="D25" s="100" t="s">
+      <c r="D25" s="101" t="s">
         <v>98</v>
       </c>
       <c r="E25" s="95"/>
@@ -3363,7 +3363,7 @@
       <c r="C26" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="D26" s="101" t="s">
+      <c r="D26" s="102" t="s">
         <v>101</v>
       </c>
       <c r="E26" s="98"/>
@@ -3379,7 +3379,7 @@
         <v>45856.0</v>
       </c>
       <c r="K26" s="87"/>
-      <c r="L26" s="102">
+      <c r="L26" s="99">
         <v>45861.0</v>
       </c>
       <c r="M26" s="23">
@@ -3507,7 +3507,7 @@
         <v>45874.0</v>
       </c>
       <c r="K28" s="87"/>
-      <c r="L28" s="102">
+      <c r="L28" s="99">
         <v>45875.0</v>
       </c>
       <c r="M28" s="23">
@@ -3516,7 +3516,7 @@
       </c>
       <c r="N28" s="90"/>
       <c r="O28" s="50"/>
-      <c r="P28" s="99"/>
+      <c r="P28" s="100"/>
       <c r="Q28" s="27" t="b">
         <v>1</v>
       </c>
@@ -3553,7 +3553,7 @@
       <c r="C29" s="94" t="s">
         <v>111</v>
       </c>
-      <c r="D29" s="100" t="s">
+      <c r="D29" s="101" t="s">
         <v>112</v>
       </c>
       <c r="E29" s="108"/>
@@ -3617,7 +3617,7 @@
       <c r="C30" s="97" t="s">
         <v>115</v>
       </c>
-      <c r="D30" s="101" t="s">
+      <c r="D30" s="102" t="s">
         <v>116</v>
       </c>
       <c r="E30" s="105"/>
@@ -3633,7 +3633,7 @@
         <v>45884.0</v>
       </c>
       <c r="K30" s="87"/>
-      <c r="L30" s="102">
+      <c r="L30" s="99">
         <v>45889.0</v>
       </c>
       <c r="M30" s="23">
@@ -3681,7 +3681,7 @@
       <c r="C31" s="111" t="s">
         <v>119</v>
       </c>
-      <c r="D31" s="100" t="s">
+      <c r="D31" s="101" t="s">
         <v>120</v>
       </c>
       <c r="E31" s="108"/>
@@ -3748,11 +3748,11 @@
       <c r="L32" s="87"/>
       <c r="M32" s="23">
         <f>IF(ISBLANK(L32), NETWORKDAYS(J33, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J33, L32, Hoja2!$A$1:$A$18))</f>
-        <v>32768</v>
+        <v>32770</v>
       </c>
       <c r="N32" s="90"/>
       <c r="O32" s="50"/>
-      <c r="P32" s="99"/>
+      <c r="P32" s="100"/>
       <c r="Q32" s="117"/>
       <c r="R32" s="28"/>
       <c r="S32" s="28"/>
@@ -3792,7 +3792,7 @@
       <c r="L33" s="45"/>
       <c r="M33" s="38">
         <f>IF(ISBLANK(L33), NETWORKDAYS(J34, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J34, L33, Hoja2!$A$1:$A$18))</f>
-        <v>32768</v>
+        <v>32770</v>
       </c>
       <c r="N33" s="46"/>
       <c r="O33" s="47"/>
@@ -3836,11 +3836,11 @@
       <c r="L34" s="87"/>
       <c r="M34" s="23">
         <f>IF(ISBLANK(L34), NETWORKDAYS(J35, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J35, L34, Hoja2!$A$1:$A$18))</f>
-        <v>32768</v>
+        <v>32770</v>
       </c>
       <c r="N34" s="90"/>
       <c r="O34" s="50"/>
-      <c r="P34" s="99"/>
+      <c r="P34" s="100"/>
       <c r="Q34" s="117"/>
       <c r="R34" s="28"/>
       <c r="S34" s="28"/>
@@ -3880,7 +3880,7 @@
       <c r="L35" s="45"/>
       <c r="M35" s="38">
         <f>IF(ISBLANK(L35), NETWORKDAYS(J36, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J36, L35, Hoja2!$A$1:$A$18))</f>
-        <v>32768</v>
+        <v>32770</v>
       </c>
       <c r="N35" s="46"/>
       <c r="O35" s="47"/>
@@ -3924,11 +3924,11 @@
       <c r="L36" s="87"/>
       <c r="M36" s="23">
         <f>IF(ISBLANK(L36), NETWORKDAYS(J37, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J37, L36, Hoja2!$A$1:$A$18))</f>
-        <v>32768</v>
+        <v>32770</v>
       </c>
       <c r="N36" s="90"/>
       <c r="O36" s="50"/>
-      <c r="P36" s="99"/>
+      <c r="P36" s="100"/>
       <c r="Q36" s="117"/>
       <c r="R36" s="28"/>
       <c r="S36" s="28"/>
@@ -3968,7 +3968,7 @@
       <c r="L37" s="45"/>
       <c r="M37" s="38">
         <f>IF(ISBLANK(L37), NETWORKDAYS(J38, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J38, L37, Hoja2!$A$1:$A$18))</f>
-        <v>32768</v>
+        <v>32770</v>
       </c>
       <c r="N37" s="46"/>
       <c r="O37" s="47"/>
@@ -4012,11 +4012,11 @@
       <c r="L38" s="87"/>
       <c r="M38" s="23">
         <f>IF(ISBLANK(L38), NETWORKDAYS(J39, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J39, L38, Hoja2!$A$1:$A$18))</f>
-        <v>32768</v>
+        <v>32770</v>
       </c>
       <c r="N38" s="90"/>
       <c r="O38" s="50"/>
-      <c r="P38" s="99"/>
+      <c r="P38" s="100"/>
       <c r="Q38" s="117"/>
       <c r="R38" s="28"/>
       <c r="S38" s="28"/>

--- a/Segumiento_Tuya.xlsx
+++ b/Segumiento_Tuya.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="154">
   <si>
     <t>Asignado a</t>
   </si>
@@ -536,6 +536,24 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>293</t>
+  </si>
+  <si>
+    <t>Habilitar función de anular el pagaré</t>
+  </si>
+  <si>
+    <t>se requiere esta opción en el aparte de anexos, con el fin de que no se devuelva la acción de anulación. Se debe informar al usuario si esta seguro de realizar la anulación.</t>
+  </si>
+  <si>
+    <t>294</t>
+  </si>
+  <si>
+    <t>Ampliar plazo</t>
+  </si>
+  <si>
+    <t>en la opción de informe de documentos eliminados, se requiere que sea de al menos 6 meses hacia atrás, para revisión de anulación de documentos</t>
   </si>
   <si>
     <t xml:space="preserve"> Año Nuevo</t>
@@ -1377,17 +1395,23 @@
     <xf borderId="5" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="5" fillId="4" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="5" fillId="4" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="5" fillId="4" fontId="11" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="5" fillId="3" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="3" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="5" fillId="3" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1400,12 +1424,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="5" fillId="4" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf borderId="6" fillId="4" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1936,7 +1954,7 @@
       <c r="L2" s="22"/>
       <c r="M2" s="23">
         <f>IF(ISBLANK(L2), NETWORKDAYS(J2, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J2, L2, Hoja2!$A$1:$A$18))</f>
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N2" s="24"/>
       <c r="O2" s="25"/>
@@ -1998,7 +2016,7 @@
       <c r="L3" s="37"/>
       <c r="M3" s="38">
         <f>IF(ISBLANK(L3), NETWORKDAYS(J3, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J3, L3, Hoja2!$A$1:$A$18))</f>
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N3" s="39"/>
       <c r="O3" s="40"/>
@@ -2060,7 +2078,7 @@
       <c r="L4" s="22"/>
       <c r="M4" s="23">
         <f>IF(ISBLANK(L4), NETWORKDAYS(J4, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J4, L4, Hoja2!$A$1:$A$18))</f>
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N4" s="22"/>
       <c r="O4" s="25"/>
@@ -2122,7 +2140,7 @@
       <c r="L5" s="36"/>
       <c r="M5" s="38">
         <f>IF(ISBLANK(L5), NETWORKDAYS(J5, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J5, L5, Hoja2!$A$1:$A$18))</f>
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N5" s="39"/>
       <c r="O5" s="40"/>
@@ -2184,7 +2202,7 @@
       <c r="L6" s="22"/>
       <c r="M6" s="23">
         <f>IF(ISBLANK(L6), NETWORKDAYS(J6, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J6, L6, Hoja2!$A$1:$A$18))</f>
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N6" s="24"/>
       <c r="O6" s="25"/>
@@ -2246,7 +2264,7 @@
       <c r="L7" s="45"/>
       <c r="M7" s="38">
         <f>IF(ISBLANK(L7), NETWORKDAYS(J7, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J7, L7, Hoja2!$A$1:$A$18))</f>
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="47"/>
@@ -2308,7 +2326,7 @@
       <c r="L8" s="22"/>
       <c r="M8" s="23">
         <f>IF(ISBLANK(L8), NETWORKDAYS(J8, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J8, L8, Hoja2!$A$1:$A$18))</f>
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N8" s="22"/>
       <c r="O8" s="50"/>
@@ -2370,7 +2388,7 @@
       <c r="L9" s="36"/>
       <c r="M9" s="38">
         <f>IF(ISBLANK(L9), NETWORKDAYS(J9, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J9, L9, Hoja2!$A$1:$A$18))</f>
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="47"/>
@@ -2432,7 +2450,7 @@
       <c r="L10" s="22"/>
       <c r="M10" s="23">
         <f>IF(ISBLANK(L10), NETWORKDAYS(J16, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J16, L10, Hoja2!$A$1:$A$18))</f>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N10" s="22"/>
       <c r="O10" s="50"/>
@@ -2787,7 +2805,7 @@
       <c r="L16" s="22"/>
       <c r="M16" s="23">
         <f>IF(ISBLANK(L16), NETWORKDAYS(J17, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J17, L16, Hoja2!$A$1:$A$18))</f>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N16" s="22"/>
       <c r="O16" s="50"/>
@@ -2847,7 +2865,7 @@
       <c r="L17" s="37"/>
       <c r="M17" s="38">
         <f>IF(ISBLANK(L17), NETWORKDAYS(J18, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J18, L17, Hoja2!$A$1:$A$18))</f>
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N17" s="37"/>
       <c r="O17" s="47"/>
@@ -2907,7 +2925,7 @@
       <c r="L18" s="22"/>
       <c r="M18" s="23">
         <f>IF(ISBLANK(L18), NETWORKDAYS(J19, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J19, L18, Hoja2!$A$1:$A$18))</f>
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N18" s="22"/>
       <c r="O18" s="50"/>
@@ -2967,7 +2985,7 @@
       <c r="L19" s="37"/>
       <c r="M19" s="38">
         <f>IF(ISBLANK(L19), NETWORKDAYS(J20, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J20, L19, Hoja2!$A$1:$A$18))</f>
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N19" s="37"/>
       <c r="O19" s="47"/>
@@ -3027,7 +3045,7 @@
       <c r="L20" s="87"/>
       <c r="M20" s="23">
         <f>IF(ISBLANK(L20), NETWORKDAYS(J21, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J21, L20, Hoja2!$A$1:$A$18))</f>
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N20" s="90"/>
       <c r="O20" s="50"/>
@@ -3911,7 +3929,7 @@
       </c>
       <c r="M34" s="23">
         <f>IF(ISBLANK(L34), NETWORKDAYS(J35, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J35, L34, Hoja2!$A$1:$A$18))</f>
-        <v>32789</v>
+        <v>-2</v>
       </c>
       <c r="N34" s="90"/>
       <c r="O34" s="50"/>
@@ -3943,26 +3961,40 @@
       <c r="AM34" s="28"/>
     </row>
     <row r="35">
-      <c r="A35" s="116"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="117"/>
-      <c r="D35" s="108"/>
-      <c r="E35" s="108"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="118"/>
+      <c r="A35" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C35" s="94" t="s">
+        <v>131</v>
+      </c>
+      <c r="D35" s="116" t="s">
+        <v>132</v>
+      </c>
+      <c r="E35" s="32"/>
+      <c r="F35" s="80" t="s">
+        <v>69</v>
+      </c>
+      <c r="G35" s="34"/>
       <c r="H35" s="64"/>
       <c r="I35" s="46"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="45"/>
+      <c r="J35" s="65">
+        <v>45929.0</v>
+      </c>
+      <c r="K35" s="37"/>
       <c r="L35" s="45"/>
       <c r="M35" s="38">
         <f>IF(ISBLANK(L35), NETWORKDAYS(J36, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J36, L35, Hoja2!$A$1:$A$18))</f>
-        <v>32790</v>
+        <v>3</v>
       </c>
-      <c r="N35" s="46"/>
+      <c r="N35" s="37"/>
       <c r="O35" s="47"/>
-      <c r="P35" s="96"/>
-      <c r="Q35" s="119"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="42" t="b">
+        <v>0</v>
+      </c>
       <c r="R35" s="43"/>
       <c r="S35" s="43"/>
       <c r="T35" s="43"/>
@@ -3987,26 +4019,40 @@
       <c r="AM35" s="43"/>
     </row>
     <row r="36">
-      <c r="A36" s="120"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="121"/>
-      <c r="D36" s="105"/>
-      <c r="E36" s="105"/>
-      <c r="F36" s="122"/>
-      <c r="G36" s="123"/>
+      <c r="A36" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C36" s="97" t="s">
+        <v>134</v>
+      </c>
+      <c r="D36" s="117" t="s">
+        <v>135</v>
+      </c>
+      <c r="E36" s="16"/>
+      <c r="F36" s="86" t="s">
+        <v>69</v>
+      </c>
+      <c r="G36" s="18"/>
       <c r="H36" s="68"/>
       <c r="I36" s="90"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="87"/>
+      <c r="J36" s="69">
+        <v>45929.0</v>
+      </c>
+      <c r="K36" s="22"/>
       <c r="L36" s="87"/>
       <c r="M36" s="23">
         <f>IF(ISBLANK(L36), NETWORKDAYS(J37, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J37, L36, Hoja2!$A$1:$A$18))</f>
-        <v>32790</v>
+        <v>32792</v>
       </c>
-      <c r="N36" s="90"/>
+      <c r="N36" s="22"/>
       <c r="O36" s="50"/>
-      <c r="P36" s="100"/>
-      <c r="Q36" s="124"/>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="27" t="b">
+        <v>0</v>
+      </c>
       <c r="R36" s="28"/>
       <c r="S36" s="28"/>
       <c r="T36" s="28"/>
@@ -4031,13 +4077,13 @@
       <c r="AM36" s="28"/>
     </row>
     <row r="37">
-      <c r="A37" s="116"/>
+      <c r="A37" s="118"/>
       <c r="B37" s="30"/>
-      <c r="C37" s="125"/>
+      <c r="C37" s="119"/>
       <c r="D37" s="108"/>
       <c r="E37" s="108"/>
       <c r="F37" s="44"/>
-      <c r="G37" s="118"/>
+      <c r="G37" s="120"/>
       <c r="H37" s="109"/>
       <c r="I37" s="46"/>
       <c r="J37" s="36"/>
@@ -4045,12 +4091,12 @@
       <c r="L37" s="45"/>
       <c r="M37" s="38">
         <f>IF(ISBLANK(L37), NETWORKDAYS(J38, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J38, L37, Hoja2!$A$1:$A$18))</f>
-        <v>32790</v>
+        <v>32792</v>
       </c>
       <c r="N37" s="46"/>
       <c r="O37" s="47"/>
       <c r="P37" s="96"/>
-      <c r="Q37" s="119"/>
+      <c r="Q37" s="121"/>
       <c r="R37" s="43"/>
       <c r="S37" s="43"/>
       <c r="T37" s="43"/>
@@ -4075,13 +4121,13 @@
       <c r="AM37" s="43"/>
     </row>
     <row r="38">
-      <c r="A38" s="126"/>
+      <c r="A38" s="122"/>
       <c r="B38" s="14"/>
-      <c r="C38" s="121"/>
+      <c r="C38" s="123"/>
       <c r="D38" s="105"/>
       <c r="E38" s="105"/>
-      <c r="F38" s="122"/>
-      <c r="G38" s="123"/>
+      <c r="F38" s="124"/>
+      <c r="G38" s="125"/>
       <c r="H38" s="68"/>
       <c r="I38" s="90"/>
       <c r="J38" s="21"/>
@@ -4089,12 +4135,12 @@
       <c r="L38" s="87"/>
       <c r="M38" s="23">
         <f>IF(ISBLANK(L38), NETWORKDAYS(J39, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J39, L38, Hoja2!$A$1:$A$18))</f>
-        <v>32790</v>
+        <v>32792</v>
       </c>
       <c r="N38" s="90"/>
       <c r="O38" s="50"/>
       <c r="P38" s="100"/>
-      <c r="Q38" s="124"/>
+      <c r="Q38" s="126"/>
       <c r="R38" s="28"/>
       <c r="S38" s="28"/>
       <c r="T38" s="28"/>
@@ -41304,7 +41350,7 @@
         <v>45292.0</v>
       </c>
       <c r="B1" s="182" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1">
@@ -41312,7 +41358,7 @@
         <v>45299.0</v>
       </c>
       <c r="B2" s="182" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1">
@@ -41320,7 +41366,7 @@
         <v>45376.0</v>
       </c>
       <c r="B3" s="182" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1">
@@ -41328,7 +41374,7 @@
         <v>45379.0</v>
       </c>
       <c r="B4" s="182" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" ht="17.25" customHeight="1">
@@ -41336,7 +41382,7 @@
         <v>45380.0</v>
       </c>
       <c r="B5" s="182" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" ht="17.25" customHeight="1">
@@ -41344,7 +41390,7 @@
         <v>45413.0</v>
       </c>
       <c r="B6" s="182" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" ht="17.25" customHeight="1">
@@ -41352,7 +41398,7 @@
         <v>45425.0</v>
       </c>
       <c r="B7" s="182" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" ht="17.25" customHeight="1">
@@ -41360,7 +41406,7 @@
         <v>45446.0</v>
       </c>
       <c r="B8" s="182" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" ht="17.25" customHeight="1">
@@ -41368,7 +41414,7 @@
         <v>45453.0</v>
       </c>
       <c r="B9" s="182" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" ht="17.25" customHeight="1">
@@ -41376,7 +41422,7 @@
         <v>45474.0</v>
       </c>
       <c r="B10" s="182" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" ht="17.25" customHeight="1">
@@ -41384,7 +41430,7 @@
         <v>45493.0</v>
       </c>
       <c r="B11" s="182" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" ht="17.25" customHeight="1">
@@ -41392,7 +41438,7 @@
         <v>45511.0</v>
       </c>
       <c r="B12" s="182" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" ht="17.25" customHeight="1">
@@ -41400,7 +41446,7 @@
         <v>45523.0</v>
       </c>
       <c r="B13" s="182" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" ht="17.25" customHeight="1">
@@ -41408,7 +41454,7 @@
         <v>45579.0</v>
       </c>
       <c r="B14" s="182" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" ht="17.25" customHeight="1">
@@ -41416,7 +41462,7 @@
         <v>45600.0</v>
       </c>
       <c r="B15" s="182" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" ht="17.25" customHeight="1">
@@ -41424,7 +41470,7 @@
         <v>45607.0</v>
       </c>
       <c r="B16" s="182" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" ht="17.25" customHeight="1">
@@ -41432,7 +41478,7 @@
         <v>45634.0</v>
       </c>
       <c r="B17" s="182" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" ht="17.25" customHeight="1">
@@ -41440,7 +41486,7 @@
         <v>45651.0</v>
       </c>
       <c r="B18" s="182" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" ht="17.25" customHeight="1"/>
